--- a/output/EssencialReations_analise/Reactions/grp3.xlsx
+++ b/output/EssencialReations_analise/Reactions/grp3.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anabe\OneDrive\Área de Trabalho\faculdade\@Lab\Bisch\V.cholerae1\Não anotado\@Saídas\EssencialReations_analise\Reactions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anabe\OneDrive\Área de Trabalho\faculdade\@Lab\Bisch\V.cholerae1\V. cholerae metabolism\output\EssencialReations_analise\Reactions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C08BE2-2DBA-4580-B746-ED920F43E213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0911C424-0B04-44BB-8823-CE93F26D9A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11190" yWindow="30" windowWidth="7950" windowHeight="6600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha1!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -436,6 +439,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4787,8 +4791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270A302A-2419-4883-BFB5-1AE81FCB2863}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4818,68 +4822,56 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.85202199999999995</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2.2062400000000002</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.0690674</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.95911800000000003</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D3">
-        <v>1.59853</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>50.200299999999999</v>
+        <v>12.3672</v>
       </c>
       <c r="F3">
-        <v>15.552231000000001</v>
+        <v>1.6034815000000002</v>
       </c>
       <c r="G3">
-        <v>8.2153200000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D4">
-        <v>-58.631500000000003</v>
+        <v>-10.491400000000001</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>-5.5509195000000009</v>
+        <v>-0.52456999999999998</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -4887,137 +4879,137 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D5">
-        <v>-230.43899999999999</v>
+        <v>-58.631500000000003</v>
       </c>
       <c r="E5">
-        <v>-7.2261899999999999</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>-101.34900450000001</v>
+        <v>-5.5509195000000009</v>
       </c>
       <c r="G5">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-3.3423500000000002</v>
       </c>
       <c r="E6">
-        <v>23.351900000000001</v>
+        <v>42.374699999999997</v>
       </c>
       <c r="F6">
-        <v>4.1916173000000008</v>
+        <v>9.36591855</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>-3.3328500000000001</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7">
-        <v>-3.3423500000000002</v>
+        <v>-4.8551599999999997</v>
       </c>
       <c r="E7">
-        <v>42.374699999999997</v>
+        <v>38.4328</v>
       </c>
       <c r="F7">
-        <v>9.36591855</v>
+        <v>8.8386009200000011</v>
       </c>
       <c r="G7">
-        <v>-3.3328500000000001</v>
+        <v>-4.8551599999999997</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="D8">
-        <v>-4.8551599999999997</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>38.4328</v>
+        <v>2.3803100000000001</v>
       </c>
       <c r="F8">
-        <v>8.8386009200000011</v>
+        <v>0.72488090000000005</v>
       </c>
       <c r="G8">
-        <v>-4.8551599999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="D9">
-        <v>-58.631500000000003</v>
+        <v>-12.0388</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>50.265099999999997</v>
       </c>
       <c r="F9">
-        <v>-5.2775615</v>
+        <v>1.4023979999999996</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>-5.2336200000000002</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D10">
-        <v>-39.112000000000002</v>
+        <v>-23.351900000000001</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>-2.6128070000000001</v>
+        <v>-4.1916173000000008</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -5025,71 +5017,71 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="D11">
-        <v>-10.491400000000001</v>
+        <v>-3.7662800000000001</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>40.522799999999997</v>
       </c>
       <c r="F11">
-        <v>-0.52456999999999998</v>
+        <v>2.8957548500000003</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>-0.19661899999999999</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>-3.2751600000000001</v>
       </c>
       <c r="E12">
-        <v>4.7606299999999999</v>
+        <v>18.213799999999999</v>
       </c>
       <c r="F12">
-        <v>1.6269456000000002</v>
+        <v>1.4002630499999997</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>-1.42381</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D13">
-        <v>-13.380699999999999</v>
+        <v>-39.112000000000002</v>
       </c>
       <c r="E13">
-        <v>18.213799999999999</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.98247184999999992</v>
+        <v>-2.6128070000000001</v>
       </c>
       <c r="G13">
-        <v>0.264621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -5117,71 +5109,71 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D15">
-        <v>-23.351900000000001</v>
+        <v>-13.380699999999999</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>18.213799999999999</v>
       </c>
       <c r="F15">
-        <v>-4.1916173000000008</v>
+        <v>0.98247184999999992</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.264621</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D16">
-        <v>-19.543800000000001</v>
+        <v>-2.2957700000000001</v>
       </c>
       <c r="E16">
-        <v>2.2957700000000001</v>
+        <v>19.543800000000001</v>
       </c>
       <c r="F16">
-        <v>-1.0940827</v>
+        <v>1.0940827</v>
       </c>
       <c r="G16">
-        <v>0.56281000000000003</v>
+        <v>-0.56281000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17">
-        <v>-12.0388</v>
+        <v>-19.543800000000001</v>
       </c>
       <c r="E17">
-        <v>50.265099999999997</v>
+        <v>2.2957700000000001</v>
       </c>
       <c r="F17">
-        <v>1.4023979999999996</v>
+        <v>-1.0940827</v>
       </c>
       <c r="G17">
-        <v>-5.2336200000000002</v>
+        <v>0.56281000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -5209,91 +5201,91 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>-230.43899999999999</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>-7.2261899999999999</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>-101.34900450000001</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D20">
-        <v>-3.7662800000000001</v>
+        <v>-20.8063</v>
       </c>
       <c r="E20">
-        <v>40.522799999999997</v>
+        <v>9.1481899999999996</v>
       </c>
       <c r="F20">
-        <v>2.8957548500000003</v>
+        <v>-3.4710419999999997</v>
       </c>
       <c r="G20">
-        <v>-0.19661899999999999</v>
+        <v>3.3607999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D21">
-        <v>-2.2957700000000001</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>19.543800000000001</v>
+        <v>22.719799999999999</v>
       </c>
       <c r="F21">
-        <v>1.0940827</v>
+        <v>7.2377182399999995</v>
       </c>
       <c r="G21">
-        <v>-0.56281000000000003</v>
+        <v>3.2598400000000001</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-58.631500000000003</v>
       </c>
       <c r="E22">
-        <v>2.3803100000000001</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.72488090000000005</v>
+        <v>-5.2775615</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -5301,108 +5293,125 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>22.719799999999999</v>
+        <v>23.351900000000001</v>
       </c>
       <c r="F23">
-        <v>7.2377182399999995</v>
+        <v>4.1916173000000008</v>
       </c>
       <c r="G23">
-        <v>3.2598400000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="D24">
-        <v>-20.8063</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>9.1481899999999996</v>
+        <v>4.7606299999999999</v>
       </c>
       <c r="F24">
-        <v>-3.4710419999999997</v>
+        <v>1.6269456000000002</v>
       </c>
       <c r="G24">
-        <v>3.3607999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="D25">
-        <v>-3.2751600000000001</v>
+        <v>1.59853</v>
       </c>
       <c r="E25">
-        <v>18.213799999999999</v>
+        <v>50.200299999999999</v>
       </c>
       <c r="F25">
-        <v>1.4002630499999997</v>
+        <v>15.552231000000001</v>
       </c>
       <c r="G25">
-        <v>-1.42381</v>
+        <v>8.2153200000000002</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" t="s">
+        <v>107</v>
       </c>
       <c r="D26">
-        <v>0.85202199999999995</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>2.2062400000000002</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1.0690674</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>0.95911800000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>12.3672</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1.6034815000000002</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1" xr:uid="{270A302A-2419-4883-BFB5-1AE81FCB2863}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G27">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>